--- a/doc/FORMAT_IMPORT_ABSENSI.xlsx
+++ b/doc/FORMAT_IMPORT_ABSENSI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TI\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ums\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
     <t>jam_keluar</t>
   </si>
   <si>
-    <t>06142</t>
+    <t>0118006</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,7 +403,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>43672</v>
+        <v>43673</v>
       </c>
       <c r="C2" s="4">
         <v>0.33333333333333331</v>

--- a/doc/FORMAT_IMPORT_ABSENSI.xlsx
+++ b/doc/FORMAT_IMPORT_ABSENSI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>nik</t>
   </si>
@@ -38,7 +38,13 @@
     <t>jam_keluar</t>
   </si>
   <si>
-    <t>0118006</t>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>06142</t>
+  </si>
+  <si>
+    <t>Haviz Indra Maulana</t>
   </si>
 </sst>
 </file>
@@ -370,73 +376,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
         <v>43673</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="4"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="4"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
